--- a/WPDigitalizer/MQ7/MQ7_Analisis.xlsx
+++ b/WPDigitalizer/MQ7/MQ7_Analisis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Onmotica Developer\Desktop\MQSensorsLib\WPDigitalizer\MQ7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF74554-BB8D-467A-9465-39ED6F45F719}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D82ACD-4F11-4ED0-9869-44D4C2C9A61F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{9C5EFFC2-5141-4097-B56E-3EAE3E1B3AE4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9C5EFFC2-5141-4097-B56E-3EAE3E1B3AE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Alcohol" sheetId="1" r:id="rId1"/>
@@ -10432,7 +10432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{232858AB-EFC4-400C-8167-ED5D9C610C58}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C26" sqref="C26:E29"/>
     </sheetView>
   </sheetViews>
@@ -10621,7 +10621,7 @@
         <v>250.28625745224883</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" ref="E24:E28" si="1">D24/B24</f>
+        <f t="shared" ref="E24:E25" si="1">D24/B24</f>
         <v>0.24815694223959411</v>
       </c>
     </row>
@@ -10637,7 +10637,7 @@
         <v>1933.8470898459518</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" ref="D25:D29" si="2">ABS(C25-B25)</f>
+        <f t="shared" ref="D25" si="2">ABS(C25-B25)</f>
         <v>2143.6119815909383</v>
       </c>
       <c r="E25" s="2">
@@ -10874,11 +10874,11 @@
         <v>142.49154992974093</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" ref="D21:D28" si="1">ABS(C21-B21)</f>
+        <f t="shared" ref="D21:D24" si="1">ABS(C21-B21)</f>
         <v>43.342301878461626</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" ref="E21:E28" si="2">D21/B21</f>
+        <f t="shared" ref="E21:E24" si="2">D21/B21</f>
         <v>0.43714201297870953</v>
       </c>
     </row>
@@ -11139,11 +11139,11 @@
         <v>99.042000000000002</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" ref="D21:D28" si="1">ABS(C21-B21)</f>
+        <f t="shared" ref="D21:D24" si="1">ABS(C21-B21)</f>
         <v>1.1553282807340963</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" ref="E21:E28" si="2">D21/B21</f>
+        <f t="shared" ref="E21:E24" si="2">D21/B21</f>
         <v>1.1802712876452886E-2</v>
       </c>
     </row>
@@ -11268,7 +11268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D929E0-C068-4B1B-BB8E-F6B06E71788E}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -11406,11 +11406,11 @@
         <v>96.816537168943654</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" ref="D20:D27" si="1">ABS(C20-B20)</f>
+        <f t="shared" ref="D20:D23" si="1">ABS(C20-B20)</f>
         <v>2.3327108823356468</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" ref="E20:E27" si="2">D20/B20</f>
+        <f t="shared" ref="E20:E23" si="2">D20/B20</f>
         <v>2.3527267510180055E-2</v>
       </c>
     </row>
@@ -11537,8 +11537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526543DA-870C-4FD9-86D4-30D11917DC17}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:E27"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B3" sqref="A3:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11558,42 +11558,42 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>49.628693072620997</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>8.6750423764161599</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>100.428109531885</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>7.7426368268112604</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>395.73330070046302</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>6.4059620594147804</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>1008.58051841483</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>5.7174403997402798</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>4025.5363043001398</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>4.91312738782967</v>
       </c>
     </row>
@@ -11624,10 +11624,10 @@
       <c r="E18" s="10"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="2">
         <v>8.6750423764161599</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>49.628693072620997</v>
       </c>
       <c r="C19" s="2">
@@ -11644,10 +11644,10 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="2">
         <v>7.7426368268112604</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>100.428109531885</v>
       </c>
       <c r="C20" s="2">
@@ -11655,19 +11655,19 @@
         <v>99.537545877419973</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" ref="D20:D27" si="1">ABS(C20-B20)</f>
+        <f t="shared" ref="D20:D23" si="1">ABS(C20-B20)</f>
         <v>0.89056365446502639</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" ref="E20:E27" si="2">D20/B20</f>
+        <f t="shared" ref="E20:E23" si="2">D20/B20</f>
         <v>8.867673190465471E-3</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="2">
         <v>6.4059620594147804</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <v>395.73330070046302</v>
       </c>
       <c r="C21" s="2">
@@ -11684,10 +11684,10 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="2">
         <v>5.7174403997402798</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
         <v>1008.58051841483</v>
       </c>
       <c r="C22" s="2">
@@ -11704,10 +11704,10 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="2">
         <v>4.91312738782967</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
         <v>4025.5363043001398</v>
       </c>
       <c r="C23" s="2">
